--- a/Definición campos algoritmo personas vs casa.xlsx
+++ b/Definición campos algoritmo personas vs casa.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ffa0bef86689d611/Escritorio/EDEM/PROYECTO 2 QL/dataproject2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{AE28FC1A-7065-4BCA-8B2F-A7CE02829F46}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2E23BD56-8F78-4475-869F-7FAAEC62351F}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{AE28FC1A-7065-4BCA-8B2F-A7CE02829F46}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2175C88C-7C44-472E-AF03-0C93AFD52731}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{ED1297B0-541C-4FBF-87CE-745C82E7815C}"/>
+    <workbookView xWindow="6552" yWindow="1428" windowWidth="17280" windowHeight="8964" xr2:uid="{ED1297B0-541C-4FBF-87CE-745C82E7815C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="definición campos" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -224,6 +224,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>107401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>4438994</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>160805</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBDDA924-BB16-404F-903C-9AEDE46C56E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381000" y="5045161"/>
+          <a:ext cx="11030294" cy="7917244"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3034116</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>91097</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3AB8D51-F9FD-45B4-9C6A-2D6EEA161738}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="350520" y="2651760"/>
+          <a:ext cx="4390476" cy="2742857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -526,7 +619,7 @@
   <dimension ref="B1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -816,5 +909,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>